--- a/tradingview_data.xlsx
+++ b/tradingview_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,1357 +456,1612 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>annualized_return_pct</t>
+          <t>simple_avg_return_pct</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cagr_pct</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+4,716.57%</t>
+          <t>+65,922.95%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1991년 5월 03일</t>
+          <t>1999년 5월 19일</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.5년</t>
+          <t>26.5년</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>136.54%</t>
+          <t>2487.18%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>27.76%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+23.60%</t>
+          <t>+101,982.85%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2004년 8월 05일</t>
+          <t>1981년 3월 24일</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.3년</t>
+          <t>44.7년</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>2283.69%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.78%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+936.35%</t>
+          <t>+7,544.13%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2004년 1월 13일</t>
+          <t>1986년 7월 25일</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.8년</t>
+          <t>39.3년</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>191.86%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.66%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+2.99%</t>
+          <t>+889.81%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022년 3월 30일</t>
+          <t>2004년 11월 29일</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.6년</t>
+          <t>21.0년</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>42.43%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.55%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+226.69%</t>
+          <t>+76.05%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2017년 1월 03일</t>
+          <t>2014년 5월 22일</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.9년</t>
+          <t>11.5년</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.56%</t>
+          <t>6.62%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>005389</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+981.58%</t>
+          <t>+8,169.70%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2004년 4월 06일</t>
+          <t>1997년 7월 07일</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.6년</t>
+          <t>28.4년</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>45.41%</t>
+          <t>287.97%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16.84%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+139.70%</t>
+          <t>+1,330.28%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1995년 6월 08일</t>
+          <t>2009년 9월 29일</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.4년</t>
+          <t>16.1년</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.59%</t>
+          <t>82.42%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17.92%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>005385</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>+408.83%</t>
+          <t>+689.18%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2004년 6월 11일</t>
+          <t>2012년 6월 25일</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.4년</t>
+          <t>13.4년</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19.07%</t>
+          <t>51.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16.67%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>005387</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+522.78%</t>
+          <t>+14,260.83%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2004년 3월 22일</t>
+          <t>2010년 9월 01일</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.7년</t>
+          <t>15.2년</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24.14%</t>
+          <t>937.17%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38.60%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+2,278.04%</t>
+          <t>+341.23%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2005년 9월 15일</t>
+          <t>1998년 1월 23일</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.2년</t>
+          <t>27.8년</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>112.93%</t>
+          <t>12.26%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>BRK.A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>+641.07%</t>
+          <t>+13,240.20%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2004년 3월 04일</t>
+          <t>1979년 12월 06일</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.7년</t>
+          <t>46.0년</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.53%</t>
+          <t>288.11%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11.24%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>BRK.B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>+133.84%</t>
+          <t>+252.20%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2009년 5월 12일</t>
+          <t>1996년 8월 14일</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16.5년</t>
+          <t>29.3년</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.10%</t>
+          <t>8.62%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>105560</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>−25.78%</t>
+          <t>+225.41%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2008년 12월 10일</t>
+          <t>1970년 8월 27일</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>55.2년</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>4.08%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>JPM/PK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>+5,423.15%</t>
+          <t>−17.12%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2004년 4월 06일</t>
+          <t>2021년 6월 01일</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.6년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>250.89%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>JPM/PM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>+108.01%</t>
+          <t>−8.75%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021년 10월 28일</t>
+          <t>2021년 10월 27일</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.1년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26.64%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>JPM/PL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>−19.86%</t>
+          <t>−13.41%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2004년 4월 06일</t>
+          <t>2021년 9월 03일</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>JPM/PJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>−51.35%</t>
+          <t>+0.51%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2004년 4월 09일</t>
+          <t>2020년 4월 09일</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>5.6년</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.09%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>JPM/PD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+3,180.83%</t>
+          <t>−14.03%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2011년 7월 18일</t>
+          <t>2019년 1월 02일</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.3년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>221.89%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>JPM/PC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>−42.63%</t>
+          <t>−20.46%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2004년 4월 06일</t>
+          <t>2019년 5월 29일</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>196170</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>+1,396.17%</t>
+          <t>+3,279.06%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2015년 4월 14일</t>
+          <t>1972년 5월 11일</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.6년</t>
+          <t>53.5년</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>131.77%</t>
+          <t>61.26%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>−42.09%</t>
+          <t>+231.44%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2004년 4월 07일</t>
+          <t>1969년 5월 09일</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>56.5년</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>4.09%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.14%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>TCEHY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>+709.60%</t>
+          <t>+1,241.99%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2000년 2월 03일</t>
+          <t>2010년 2월 25일</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25.8년</t>
+          <t>15.7년</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27.52%</t>
+          <t>78.95%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>17.95%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02826K</t>
+          <t>TCTZF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>+34.12%</t>
+          <t>+19,216.06%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2015년 11월 02일</t>
+          <t>2005년 3월 14일</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.0년</t>
+          <t>20.7년</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.40%</t>
+          <t>929.01%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>28.98%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>028260</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>+25.54%</t>
+          <t>+7,801.80%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2015년 2월 04일</t>
+          <t>1986년 9월 04일</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.8년</t>
+          <t>39.2년</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.37%</t>
+          <t>198.98%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>11.79%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>−69.01%</t>
+          <t>+23.52%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2007년 9월 06일</t>
+          <t>2008년 6월 18일</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>17.4년</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.22%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>096775</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>−17.89%</t>
+          <t>+11.40%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2007년 9월 14일</t>
+          <t>1968년 3월 20일</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>57.7년</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.19%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>+762.47%</t>
+          <t>+1,114.25%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2003년 12월 15일</t>
+          <t>2006년 6월 29일</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21.9년</t>
+          <t>19.4년</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>57.46%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>13.74%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>051915</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>+619.53%</t>
+          <t>+633.86%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2004년 4월 21일</t>
+          <t>1968년 3월 29일</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21.6년</t>
+          <t>57.6년</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28.72%</t>
+          <t>11.00%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.52%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>SSNLF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>+23.15%</t>
+          <t>−96.68%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2003년 12월 22일</t>
+          <t>2013년 9월 16일</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21.9년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>086790</t>
+          <t>ACGBF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>−81.09%</t>
+          <t>−37.73%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2006년 3월 13일</t>
+          <t>2011년 3월 31일</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>+4,271.37%</t>
+          <t>+169.03%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2004년 1월 05일</t>
+          <t>2013년 1월 17일</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21.9년</t>
+          <t>12.8년</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>195.33%</t>
+          <t>13.17%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.01%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>−54.08%</t>
+          <t>+141.36%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2003년 12월 23일</t>
+          <t>2021년 1월 19일</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>4.8년</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>29.25%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>000815</t>
+          <t>ACGBY</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>+160.75%</t>
+          <t>−24.98%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2003년 12월 23일</t>
+          <t>2011년 5월 19일</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21.9년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.34%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>259960</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>−40.68%</t>
+          <t>+755.62%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021년 10월 20일</t>
+          <t>1986년 5월 07일</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>39.5년</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>19.11%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.58%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>032830</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>−11.72%</t>
+          <t>+1,457,645.41%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2010년 7월 08일</t>
+          <t>1973년 6월 19일</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>52.4년</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>27807.64%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>20.07%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>+329.28%</t>
+          <t>+1,607.39%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2004년 6월 03일</t>
+          <t>1995년 4월 26일</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21.5년</t>
+          <t>30.6년</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15.35%</t>
+          <t>52.58%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.73%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>ASMLF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>+843.12%</t>
+          <t>+848.26%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2004년 1월 06일</t>
+          <t>2002년 1월 08일</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>21.9년</t>
+          <t>23.9년</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>38.56%</t>
+          <t>35.55%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.89%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>006405</t>
+          <t>IDCBY</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>+481.38%</t>
+          <t>+2.75%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2004년 4월 02일</t>
+          <t>2009년 7월 20일</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21.6년</t>
+          <t>16.3년</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22.26%</t>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.17%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>006400</t>
+          <t>IDCBF</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>+104.56%</t>
+          <t>−21.55%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2004년 8월 10일</t>
+          <t>2007년 2월 12일</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>21.3년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.92%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>BAC/PS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>−41.03%</t>
+          <t>−8.96%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1995년 6월 08일</t>
+          <t>2022년 5월 25일</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>BML/PH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>+499.29%</t>
+          <t>+220.38%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2004년 1월 12일</t>
+          <t>2005년 6월 30일</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21.8년</t>
+          <t>20.4년</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22.85%</t>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.88%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>066575</t>
+          <t>BAC/PE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>+1,149.93%</t>
+          <t>+177.00%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2004년 1월 13일</t>
+          <t>2007년 6월 05일</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21.8년</t>
+          <t>18.5년</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>52.64%</t>
+          <t>9.59%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.67%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>BML/PG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>+20.96%</t>
+          <t>+165.21%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2004년 3월 22일</t>
+          <t>2005년 6월 24일</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>21.7년</t>
+          <t>20.4년</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>8.10%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.90%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>BAC/PN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>+1.92%</t>
+          <t>−13.47%</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2019년 4월 15일</t>
+          <t>2019년 12월 16일</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.6년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>402340</t>
+          <t>BAC/PO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>+109.49%</t>
+          <t>−9.94%</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022년 1월 04일</t>
+          <t>2021년 4월 01일</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.9년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>28.30%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>BAC/PL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>+166.78%</t>
+          <t>+94.44%</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2004년 4월 07일</t>
+          <t>2008년 3월 26일</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21.6년</t>
+          <t>17.7년</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.72%</t>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.84%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>017670</t>
+          <t>BAC/PB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>−70.82%</t>
+          <t>−17.70%</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2003년 12월 23일</t>
+          <t>2018년 8월 20일</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>323410</t>
+          <t>BAC/PK</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>−2.54%</t>
+          <t>−10.65%</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021년 11월 03일</t>
+          <t>2018년 9월 28일</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>계산 오류</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>028300</t>
+          <t>MER/PK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>+1,864.81%</t>
+          <t>−27.20%</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2004년 7월 23일</t>
+          <t>2019년 1월 08일</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21.3년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>87.47%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>BAC/PQ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>+338.59%</t>
+          <t>−10.93%</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2017년 7월 21일</t>
+          <t>2021년 12월 16일</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8.3년</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>40.67%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/tradingview_data.xlsx
+++ b/tradingview_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1632 +436,7272 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>종목코드</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>profit_pct</t>
+          <t>수익기준(Alpha/Beta)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>trade_1_entry</t>
+          <t>총손익률(%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>trading_duration_years</t>
+          <t>1번거래진입시점</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>simple_avg_return_pct</t>
+          <t>총거래기간(년)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cagr_pct</t>
+          <t>연평균단순수익률(%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>승률(%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>최대손실거래(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>수익지수</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>샤프레이쇼</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>소티노레이쇼</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>연복리수익률(CAGR,%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>매수후보유수익(참고)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>순이익(참고)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>005935</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+65,922.95%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1999년 5월 19일</t>
+          <t>+15.19%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.5년</t>
+          <t>2004년 8월 05일</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2487.18%</t>
+          <t>21.3년</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>27.76%</t>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>35.90%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>11.13%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.052</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>+1,133.99%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>+15.19%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>005930</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+101,982.85%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1981년 3월 24일</t>
+          <t>+4,710.93%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.7년</t>
+          <t>1991년 5월 03일</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2283.69%</t>
+          <t>34.5년</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.78%</t>
+          <t>136.36%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>34.57%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25.11%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.113</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.397</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>11.86%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>+24,025.00%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+4,678.01%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>000660</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+7,544.13%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1986년 7월 25일</t>
+          <t>+920.52%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.3년</t>
+          <t>2004년 1월 13일</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>191.86%</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.66%</t>
+          <t>42.13%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>34.71%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16.79%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.368</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.126</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.417</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>11.22%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>+7,881.00%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>+816.86%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+889.81%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2004년 11월 29일</t>
+          <t>−3.75%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.0년</t>
+          <t>2022년 3월 30일</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42.43%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.55%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8.88%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.537</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>−0.048</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>−0.086</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>−0.60%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>−24.38%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>005387</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+76.05%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2014년 5월 22일</t>
+          <t>+484.80%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.5년</t>
+          <t>2004년 3월 22일</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.62%</t>
+          <t>21.7년</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.04%</t>
+          <t>22.38%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>38.68%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.336</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.296</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>8.49%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>+705.20%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>+473.61%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>005389</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+8,169.70%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1997년 7월 07일</t>
+          <t>+963.26%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.4년</t>
+          <t>2004년 4월 06일</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>287.97%</t>
+          <t>21.6년</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16.84%</t>
+          <t>44.55%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>34.91%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10.77%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.109</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.477</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>11.55%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>+859.95%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>+953.90%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>005385</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+1,330.28%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2009년 9월 29일</t>
+          <t>+421.87%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.1년</t>
+          <t>2004년 6월 11일</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.42%</t>
+          <t>21.4년</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17.92%</t>
+          <t>19.68%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>40.54%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11.41%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.097</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.275</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8.01%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>+784.35%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>+406.82%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>005380</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>+689.18%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2012년 6월 25일</t>
+          <t>+136.64%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.4년</t>
+          <t>1995년 6월 08일</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>51.42%</t>
+          <t>30.5년</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>4.49%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>29.70%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20.57%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.119</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2.87%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>+693.00%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>+120.07%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+14,260.83%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2010년 9월 01일</t>
+          <t>+103.83%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.2년</t>
+          <t>2021년 10월 28일</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>937.17%</t>
+          <t>4.1년</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38.60%</t>
+          <t>25.57%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>13.52%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.752</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.175</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.494</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>19.17%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>+369.60%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>+108.01%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+341.23%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1998년 1월 23일</t>
+          <t>+4,271.37%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27.8년</t>
+          <t>2004년 1월 05일</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12.26%</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>195.28%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>34.86%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2.302</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.126</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.584</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18.85%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>+1,299.08%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>+4,271.37%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRK.A</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>+13,240.20%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1979년 12월 06일</t>
+          <t>+5,423.15%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46.0년</t>
+          <t>2004년 4월 06일</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>288.11%</t>
+          <t>21.6년</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>250.83%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>40.38%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17.77%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2.623</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.163</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.549</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>20.39%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>+7,411.90%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>+5,423.15%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRK.B</t>
+          <t>105560</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>+252.20%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1996년 8월 14일</t>
+          <t>−29.24%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>29.3년</t>
+          <t>2008년 12월 10일</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.40%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>29.67%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15.03%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.864</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>−0.034</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>−0.065</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>+245.00%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>−33.53%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>+225.41%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1970년 8월 27일</t>
+          <t>+638.47%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.2년</t>
+          <t>2004년 3월 04일</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>21.7년</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>29.41%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>19.87%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.604</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.308</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>9.65%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>+862.68%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>+635.60%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JPM/PK</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>−17.12%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021년 6월 01일</t>
+          <t>+2,275.58%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2005년 9월 15일</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>20.2년</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>112.78%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31.78%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>14.41%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.382</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.727</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>17.00%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>+4,527.50%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>+2,280.70%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JPM/PM</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>−8.75%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021년 10월 27일</t>
+          <t>−57.10%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2004년 4월 09일</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>31.48%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>56.62%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>+4.88%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>−58.77%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JPM/PL</t>
+          <t>402340</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>−13.41%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021년 9월 03일</t>
+          <t>+96.49%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022년 1월 04일</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9년</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.91%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>19.05%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>+298.20%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>+15.77%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JPM/PJ</t>
+          <t>055550</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>+0.51%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2020년 4월 09일</t>
+          <t>−21.81%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.6년</t>
+          <t>2004년 4월 06일</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>11.98%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.923</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>−0.023</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>−0.048</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>+253.46%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>−30.63%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPM/PD</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>−14.03%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2019년 1월 02일</t>
+          <t>+138.58%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2009년 5월 12일</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>16.5년</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8.39%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11.96%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.423</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.177</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5.40%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>+599.20%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>+138.58%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JPM/PC</t>
+          <t>02826K</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>−20.46%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2019년 5월 29일</t>
+          <t>+30.01%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2015년 11월 02일</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.0년</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>31.11%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.089</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.65%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>+18.00%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>+18.30%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>028260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>+3,279.06%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1972년 5월 11일</t>
+          <t>+21.72%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53.5년</t>
+          <t>2015년 2월 04일</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>61.26%</t>
+          <t>10.8년</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>31.48%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>13.95%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.983</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>+52.85%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>−2.01%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>+231.44%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1969년 5월 09일</t>
+          <t>+843.12%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56.5년</t>
+          <t>2004년 1월 06일</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.14%</t>
+          <t>38.55%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>35.51%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>21.31%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1.441</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>+1,030.05%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>+843.12%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TCEHY</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>+1,241.99%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2010년 2월 25일</t>
+          <t>−46.08%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.7년</t>
+          <t>1995년 6월 08일</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>31.65%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20.12%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.815</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>−0.05</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>−0.086</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>+61.71%</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>−63.42%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TCTZF</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>+19,216.06%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2005년 3월 14일</t>
+          <t>+758.88%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20.7년</t>
+          <t>2003년 12월 15일</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>929.01%</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>28.98%</t>
+          <t>34.60%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>42.59%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>16.70%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1.299</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.355</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>10.30%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>+642.20%</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>+734.42%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>051915</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>+7,801.80%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1986년 9월 04일</t>
+          <t>+613.29%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39.2년</t>
+          <t>2004년 4월 21일</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>198.98%</t>
+          <t>21.6년</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11.79%</t>
+          <t>28.42%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>35.45%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>17.15%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.284</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.109</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.343</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>9.53%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>+570.85%</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>+583.05%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>+23.52%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2008년 6월 18일</t>
+          <t>+327.92%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17.4년</t>
+          <t>2017년 7월 21일</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>8.3년</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>39.36%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>29.17%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>19.73%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2.247</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.662</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>19.06%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>+1,077.00%</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>+273.80%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>196170</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>+11.40%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1968년 3월 20일</t>
+          <t>+1,395.33%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>57.7년</t>
+          <t>2015년 4월 14일</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>10.6년</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>131.62%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>25.93%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.34%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1.616</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.931</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>29.07%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>+8,930.80%</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>+1,379.19%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>032830</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>+1,114.25%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2006년 6월 29일</t>
+          <t>−14.17%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19.4년</t>
+          <t>2010년 7월 08일</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>57.46%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>13.74%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>13.93%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.906</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>−0.025</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>−0.055</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>+38.88%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>−14.17%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>+633.86%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1968년 3월 29일</t>
+          <t>+595.99%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>57.6년</t>
+          <t>2000년 2월 03일</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11.00%</t>
+          <t>25.8년</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>23.11%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>39.23%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>15.19%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1.393</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.257</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>7.81%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>+88.32%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>+595.99%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SSNLF</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>−96.68%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2013년 9월 16일</t>
+          <t>−42.63%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>2004년 4월 06일</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>30.89%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.886</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>−0.039</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>−0.078</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>+432.90%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>−42.63%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ACGBF</t>
+          <t>086790</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>−37.73%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2011년 3월 31일</t>
+          <t>−81.36%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>2006년 3월 13일</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>25.20%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>16.04%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.443</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>−0.138</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>−0.22</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>+98.70%</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>−81.69%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>006400</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>+169.03%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2013년 1월 17일</t>
+          <t>+95.43%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12.8년</t>
+          <t>2004년 8월 10일</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13.17%</t>
+          <t>21.3년</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>4.49%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>30.97%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>13.29%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>3.20%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>+146.80%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>+57.11%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>006405</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>+141.36%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021년 1월 19일</t>
+          <t>+478.05%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.8년</t>
+          <t>2004년 4월 02일</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>29.25%</t>
+          <t>21.6년</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>22.10%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>34.55%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>18.53%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1.521</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.097</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>8.45%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>+119.28%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>+456.17%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ACGBY</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>−24.98%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2011년 5월 19일</t>
+          <t>−42.27%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>2004년 4월 07일</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>31.50%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.871</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>−0.053</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>−0.088</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>+72.50%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>−45.78%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>+755.62%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1986년 5월 07일</t>
+          <t>+162.04%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>39.5년</t>
+          <t>2004년 4월 07일</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19.11%</t>
+          <t>21.6년</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>7.50%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>37.07%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>28.88%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1.085</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.069</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.172</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>+488.36%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>+120.48%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>+1,457,645.41%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1973년 6월 19일</t>
+          <t>+143.92%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>52.4년</t>
+          <t>2014년 2월 12일</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27807.64%</t>
+          <t>11.8년</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>20.07%</t>
+          <t>12.23%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>36.51%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>18.77%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.509</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.246</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>+517.11%</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>+143.92%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>138040</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>+1,607.39%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1995년 4월 26일</t>
+          <t>+3,178.97%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30.6년</t>
+          <t>2011년 7월 18일</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>52.58%</t>
+          <t>14.3년</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>221.67%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>33.90%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10.13%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3.184</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.187</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>27.55%</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>+3,519.81%</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>+3,187.01%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ASMLF</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>+848.26%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2002년 1월 08일</t>
+          <t>−73.72%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23.9년</t>
+          <t>2007년 9월 06일</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>35.55%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9.89%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>20.50%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.634</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>−0.086</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>−0.164</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>−17.08%</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>−73.72%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IDCBY</t>
+          <t>096775</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>+2.75%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2009년 7월 20일</t>
+          <t>−21.63%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16.3년</t>
+          <t>2007년 9월 14일</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>15.88%</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.927</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>−0.012</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>−0.026</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>−7.92%</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>−27.87%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IDCBF</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>−21.55%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2007년 2월 12일</t>
+          <t>−54.08%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>2003년 12월 23일</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>31.25%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>12.08%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.787</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>−0.098</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>−0.154</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>+562.10%</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>−54.08%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BAC/PS</t>
+          <t>000815</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>−8.96%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022년 5월 25일</t>
+          <t>+159.14%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2003년 12월 23일</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>7.26%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>37.61%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>11.90%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.351</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>+1,062.60%</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>+161.01%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BML/PH</t>
+          <t>298040</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>+220.38%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2005년 6월 30일</t>
+          <t>+654.52%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20.4년</t>
+          <t>2018년 9월 03일</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>7.2년</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>90.76%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>35.29%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>16.20%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.883</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.167</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.622</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>32.34%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>+3,332.00%</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>+336.81%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BAC/PE</t>
+          <t>316140</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>+177.00%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2007년 6월 05일</t>
+          <t>+0.43%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>18.5년</t>
+          <t>2019년 4월 15일</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>9.59%</t>
+          <t>6.6년</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>27.03%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1.027</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>+81.42%</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>+2.29%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BML/PG</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>+165.21%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2005년 6월 24일</t>
+          <t>+331.86%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20.4년</t>
+          <t>2004년 6월 03일</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8.10%</t>
+          <t>21.5년</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>15.46%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>34.75%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>24.56%</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1.173</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.246</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>7.05%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>+5,829.20%</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>+329.28%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BAC/PN</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>−13.47%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2019년 12월 16일</t>
+          <t>+416.23%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2019년 8월 28일</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>6.2년</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>66.83%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>48.39%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>11.47%</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.077</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>30.15%</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>+296.00%</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>+378.58%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BAC/PO</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>−9.94%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021년 4월 01일</t>
+          <t>+23.15%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2003년 12월 22일</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>29.20%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>28.67%</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1.044</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.046</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.159</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>−61.78%</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>+23.15%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BAC/PL</t>
+          <t>024110</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>+94.44%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2008년 3월 26일</t>
+          <t>+19.95%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17.7년</t>
+          <t>2004년 3월 22일</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.35%</t>
+          <t>21.7년</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.84%</t>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>34.40%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>14.08%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1.035</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>+158.12%</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>+16.93%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BAC/PB</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>−17.70%</t>
+          <t>베타(β)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2018년 8월 20일</t>
+          <t>+389.82%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2003년 12월 18일</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>17.78%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>31.78%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>26.04%</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1.452</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.281</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>7.52%</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>+460.20%</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>+389.82%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BAC/PK</t>
+          <t>009155</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>−10.65%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2018년 9월 28일</t>
+          <t>+1,919.90%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2004년 1월 08일</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>87.81%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>40.82%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>10.50%</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1.595</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.124</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.762</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>14.74%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>+357.42%</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>+1,844.54%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MER/PK</t>
+          <t>066575</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>−27.20%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2019년 1월 08일</t>
+          <t>+1,151.10%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2004년 1월 13일</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21.9년</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>52.68%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>41.11%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>20.77%</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.409</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.517</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>12.26%</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>+65.45%</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>+1,128.74%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BAC/PQ</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>−10.93%</t>
+          <t>알파(α)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021년 12월 16일</t>
+          <t>+494.01%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>2004년 1월 12일</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>22.61%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>37.25%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>15.27%</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1.467</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.318</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8.49%</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>+36.30%</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>+486.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>267250</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>+78.19%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2017년 7월 07일</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>8.4년</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.34%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>23.26%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>11.79%</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1.252</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.313</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>7.15%</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>+151.80%</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>+27.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>033780</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>−16.19%</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2004년 1월 13일</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>33.06%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>9.25%</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.916</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>−0.033</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>−0.063</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>+523.74%</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>−21.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>247540</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>+861.13%</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019년 6월 03일</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6.5년</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>133.22%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>41.94%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>16.93%</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1.819</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.183</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1.184</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>41.92%</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>+833.30%</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>+861.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>000155</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>+41,713.72%</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2004년 4월 09일</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.6년</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1930.07%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>42.11%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>11.50%</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>3.127</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>32.22%</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>+18,614.70%</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>+41,664.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>000157</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>+9,794.30%</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2004년 3월 04일</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>451.12%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>41.57%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>20.12%</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4.815</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.725</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>23.57%</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>+10,200.00%</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>+9,761.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>000150</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>+2,262.64%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2004년 4월 12일</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.6년</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>104.73%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>34.86%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>21.69%</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1.415</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0.131</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.528</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>15.76%</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>+8,064.00%</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>+2,213.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>034730</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>+254.24%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2010년 2월 22일</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15.7년</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>16.15%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>33.78%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1.572</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.336</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>+343.40%</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>+235.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03473K</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>+153.21%</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2015년 10월 23일</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10.1년</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>15.21%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>18.82%</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1.614</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.454</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>9.66%</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>+21.42%</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>+130.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>+704.38%</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2003년 12월 30일</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>32.18%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>32.17%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>15.14%</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1.517</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.387</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>9.99%</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>+3,700.00%</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>+649.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>018260</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>−51.02%</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2015년 2월 26일</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>15.13%</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.582</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>−0.111</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>−0.182</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>−34.59%</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>−51.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>352820</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>+171.62%</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2020년 11월 23일</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5.0년</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>34.40%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>47.62%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>12.13%</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2.405</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.209</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.755</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>22.18%</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>+54.75%</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>+171.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>086280</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>+94.15%</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2006년 7월 03일</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>19.4년</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>35.64%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>17.70%</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1.182</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.122</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>+871.20%</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>+94.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>003555</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>+1,571.09%</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2004년 1월 13일</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>71.90%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>38.83%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>14.41%</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1.589</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.535</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>13.76%</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>+1,035.44%</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>+1,567.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>+249.14%</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2004년 1월 13일</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>11.40%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>41.44%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>17.73%</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1.206</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.074</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.189</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>5.89%</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>+703.00%</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>+248.89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>086520</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>+2,004.96%</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2007년 10월 12일</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>18.1년</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>110.74%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>27.16%</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1.892</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.645</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>18.33%</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>+4,071.24%</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>+1,996.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>030200</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>+5.64%</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1999년 3월 09일</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.7년</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>32.09%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>11.34%</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1.011</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>+24.00%</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>+5.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>259960</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>−40.68%</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2021년 10월 20일</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>15.57%</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.402</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>−0.214</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>−0.277</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>−45.90%</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>−40.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>042700</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>+4,598.35%</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2005년 10월 06일</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.1년</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>228.54%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>35.64%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>18.64%</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4.394</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.636</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>21.09%</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>+9,954.35%</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>+4,598.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>006800</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>+319.39%</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2004년 1월 14일</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.8년</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>14.62%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>31.71%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>14.74%</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1.242</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6.78%</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>+438.61%</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>+319.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>006805</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>+4,203.80%</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2004년 2월 26일</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>193.45%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>39.22%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>14.72%</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2.272</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.692</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>+345.77%</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>+4,203.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>00680K</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>+127.77%</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2018년 4월 24일</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7.6년</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>16.87%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3.171</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.666</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>11.48%</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>+112.99%</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>+127.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>017670</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>−71.29%</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2003년 12월 23일</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>26.36%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>14.61%</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>−0.175</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>−0.253</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>+28.32%</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>−71.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>323410</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>−2.54%</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2021년 11월 03일</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>23.53%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>12.48%</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.959</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>−60.88%</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>−2.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>047810</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>+86.93%</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2011년 8월 17일</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14.3년</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>31.58%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>13.27%</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1.221</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.141</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>+252.78%</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>+90.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>326030</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>−17.53%</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2020년 8월 13일</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>13.29%</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>−0.051</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>−0.091</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>−30.20%</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>−35.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>272210</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>+114.96%</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2020년 4월 06일</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5.6년</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>20.45%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>40.63%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>15.84%</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.137</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.413</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>14.59%</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>+648.15%</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>+114.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>+14,750.28%</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2004년 2월 20일</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>678.28%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>37.14%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>19.48%</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2.454</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>25.85%</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>+45,687.60%</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>+14,750.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>010950</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>+173.14%</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2003년 12월 18일</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.90%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>33.64%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>13.51%</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1.163</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>+199.65%</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>+134.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>+228.81%</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2004년 2월 24일</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10.53%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>30.48%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>13.23%</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1.293</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>+153.50%</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>+201.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>071050</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>−43.13%</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2004년 4월 09일</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>24.22%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>19.66%</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.932</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>+2,384.22%</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>−43.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>071055</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>+5,283.22%</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2004년 4월 23일</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.6년</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>244.89%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>41.41%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>16.26%</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2.417</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.776</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>20.29%</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>+3,276.91%</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>+5,274.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>298380</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>−9.45%</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2019년 2월 13일</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>30.95%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>28.89%</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.632</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>−0.016</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>−0.03</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>+818.64%</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>−61.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>443060</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>+11.01%</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2024년 7월 25일</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1.3년</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.34%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>12.44%</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1.384</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0.099</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.198</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>8.24%</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>+48.51%</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>+11.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>000105</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>+77.35%</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2003년 12월 17일</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.53%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>27.52%</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>13.65%</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1.244</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.113</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2.65%</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>+899.52%</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>+85.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>000100</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>+78.58%</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2004년 6월 08일</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.4년</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>35.96%</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1.163</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0.083</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>+1,571.04%</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>+85.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>010620</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>+1,639.90%</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2004년 3월 29일</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.6년</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>75.77%</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>38.32%</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>16.31%</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1.537</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.122</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.392</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>14.11%</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>+2,556.45%</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>+1,645.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>047050</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>+240.77%</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2004년 8월 05일</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.3년</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>11.31%</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>29.75%</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>13.55%</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>5.93%</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>+715.74%</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>+240.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>079550</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>+118.35%</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2016년 1월 07일</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>9.9년</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>11.99%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>18.64%</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1.631</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.092</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>8.24%</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>+270.45%</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>+118.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>278470</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>+225.51%</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2024년 4월 30일</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1.6년</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>145.01%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>7.48%</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>15.781</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.251</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>4.411</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>113.60%</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>+284.75%</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>+225.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>+796.90%</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2004년 4월 07일</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21.6년</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>36.86%</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>28.32%</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>21.86%</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.031</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>10.68%</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>+4,289.68%</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>+702.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>003490</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>+28.48%</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2004년 3월 08일</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>30.97%</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>14.39%</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1.063</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.068</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>+70.40%</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>+28.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>+394.41%</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2004년 3월 08일</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>38.61%</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1.392</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.279</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>7.64%</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>+183.92%</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>+395.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>005830</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>+73.60%</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2003년 12월 10일</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.9년</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>36.00%</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>14.81%</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1.065</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.093</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.55%</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>+2,570.76%</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>+73.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>+779.32%</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2004년 2월 25일</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.7년</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>35.86%</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>13.46%</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1.723</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.463</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>10.52%</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>+319.20%</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>+780.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>−19.75%</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2004년 1월 12일</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>33.61%</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>14.75%</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0.956</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>−0.006</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>−0.012</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>+116.39%</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>−20.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>090430</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>+151.79%</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2006년 8월 16일</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>19.3년</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.88%</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>37.63%</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>30.55%</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1.189</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>4.91%</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>+206.64%</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>+146.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>090435</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>알파(α)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>+469.46%</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2006년 8월 21일</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>19.2년</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>24.39%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>33.68%</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>27.90%</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1.284</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.099</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.323</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>9.46%</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>+124.56%</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>+456.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>039490</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>−0.11%</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2009년 12월 08일</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>32.22%</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>25.11%</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0.949</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>+496.10%</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>−13.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>277810</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>+155.21%</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2021년 4월 09일</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>4.6년</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>33.64%</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>15.24%</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1.536</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>22.52%</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>+1,320.90%</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>+125.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>161390</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>베타(β)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>+9.97%</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2012년 11월 30일</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>13.0년</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>36.92%</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>23.00%</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.853</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>−0.001</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>+24.78%</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>−28.60%</t>
         </is>
       </c>
     </row>
